--- a/docs/Models Benchmark.xlsx
+++ b/docs/Models Benchmark.xlsx
@@ -2,21 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviaresende/Documents/DSI-822/Projects/week_12/capstone_airbnb/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviaresende/Documents/DSI-822/Projects/week_13/airbnb_data_analysis/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A35B96E-C8D0-4F48-A0BD-3C908BB20D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDC6B67F-CB64-4541-8BED-202BC4A900F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="-19920" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{0926B4AE-3400-3E49-B27C-8CC349AEC220}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16540" activeTab="3" xr2:uid="{0926B4AE-3400-3E49-B27C-8CC349AEC220}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="v2" sheetId="3" r:id="rId3"/>
+    <sheet name="v3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'v3'!$A$1:$H$13</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="47">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -142,16 +149,134 @@
   </si>
   <si>
     <t>Stacked Model enet</t>
+  </si>
+  <si>
+    <t>TRAINING DATA SETTINGS</t>
+  </si>
+  <si>
+    <t>X_train.shape, X_test.shape, y_train.shape, y_test.shape</t>
+  </si>
+  <si>
+    <t>((17746, 169), (4437, 169), (17746,), (4437,))</t>
+  </si>
+  <si>
+    <t>X.SHAPE</t>
+  </si>
+  <si>
+    <t>(22183, 169)</t>
+  </si>
+  <si>
+    <t>FEATURES</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <r>
+      <t>['host_is_superhost',</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>'host_has_profile_pic',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'host_identity_verified',
+'neighbourhood_cleansed', 'room_type', 'accommodates', '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>beds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>'minimum_nights'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 'maximum_nights', </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>'number_of_reviews'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,
+'review_scores_rating', 'instant_bookable', 'bathrooms_type',
+'bathrooms_nbr', 'neigh_price_sqft']</t>
+    </r>
+  </si>
+  <si>
+    <t>Stacked Model ElasticNet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Forest </t>
+  </si>
+  <si>
+    <t>Diff.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -180,8 +305,36 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,6 +353,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -437,7 +596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -520,13 +679,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -539,14 +691,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -558,7 +702,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -587,6 +731,201 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -904,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD99DEF-41C4-CF4C-9D3D-C68543870BF7}">
   <dimension ref="B1:H16"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="134" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H16"/>
+    <sheetView zoomScale="126" zoomScaleNormal="126" zoomScalePageLayoutView="134" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1212,64 +1551,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DAED28-3763-2A4A-BE66-AE459672423D}">
   <dimension ref="B2:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:H11"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="52"/>
+    <col min="7" max="7" width="10.83203125" style="45"/>
     <col min="9" max="9" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="39" t="s">
+      <c r="G3" s="46"/>
+      <c r="H3" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="43" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="41">
         <v>0.63063461953681599</v>
       </c>
-      <c r="F4" s="59">
+      <c r="F4" s="52">
         <v>-3.79048687167223</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="42">
         <f>E4-F4</f>
         <v>4.4211214912090462</v>
       </c>
-      <c r="H4" s="60">
+      <c r="H4" s="53">
         <v>145.63988175558799</v>
       </c>
     </row>
@@ -1277,19 +1616,19 @@
       <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="12">
         <v>0.62973809438418005</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="12">
         <v>0.62137895088912298</v>
       </c>
-      <c r="G5" s="54">
+      <c r="G5" s="47">
         <f>E5-F5</f>
         <v>8.3591434950570642E-3</v>
       </c>
@@ -1301,15 +1640,15 @@
       <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="12">
         <v>0.63058378872961396</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="12">
         <v>0.61976071270727695</v>
       </c>
-      <c r="G6" s="54">
+      <c r="G6" s="47">
         <f>E6-F6</f>
         <v>1.0823076022337008E-2</v>
       </c>
@@ -1318,18 +1657,18 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="42">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="12">
         <v>0.74323098630686202</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="12">
         <v>0.615060183416971</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="48">
         <f>E7-F7</f>
         <v>0.12817080288989102</v>
       </c>
@@ -1338,22 +1677,22 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="12">
         <v>0.70704389520158495</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="12">
         <v>0.63167888063074296</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="48">
         <f>E8-F8</f>
         <v>7.5365014570841993E-2</v>
       </c>
@@ -1362,31 +1701,31 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="34"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="35"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="12">
         <v>0.62019603880994001</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="12">
         <v>0.61150418465413803</v>
       </c>
-      <c r="G10" s="55">
+      <c r="G10" s="48">
         <f>E10-F10</f>
         <v>8.6918541558019813E-3</v>
       </c>
@@ -1395,26 +1734,26 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="12">
         <v>0.84727802592810897</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="12">
         <v>0.68830590161972705</v>
       </c>
-      <c r="G11" s="55">
+      <c r="G11" s="48">
         <f>E11-F11</f>
         <v>0.15897212430838192</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="14">
         <v>149.35988393494</v>
       </c>
     </row>
@@ -1422,45 +1761,45 @@
       <c r="B12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="54"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="47"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="12">
         <v>-0.146741047501564</v>
       </c>
-      <c r="G13" s="54"/>
+      <c r="G13" s="47"/>
       <c r="H13" s="14">
         <v>126.274991265281</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="54"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="47"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="37" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="5"/>
@@ -1471,16 +1810,16 @@
       <c r="F15" s="6">
         <v>0.65192635293436196</v>
       </c>
-      <c r="G15" s="56">
+      <c r="G15" s="49">
         <f>E15-F15</f>
         <v>0.22717838515443001</v>
       </c>
-      <c r="H15" s="61">
+      <c r="H15" s="54">
         <v>158.03102275520499</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="38" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="8"/>
@@ -1491,11 +1830,11 @@
       <c r="F16" s="9">
         <v>0.57118341480435997</v>
       </c>
-      <c r="G16" s="57">
+      <c r="G16" s="50">
         <f>E16-F16</f>
         <v>5.5853818823769052E-2</v>
       </c>
-      <c r="H16" s="62">
+      <c r="H16" s="55">
         <v>126.14951902969599</v>
       </c>
     </row>
@@ -1505,10 +1844,778 @@
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0C0AB5-77A9-FB4D-90CA-DD18CB0D637C}">
+  <dimension ref="B2:I29"/>
+  <sheetViews>
+    <sheetView zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="41">
+        <v>0.63063461953681599</v>
+      </c>
+      <c r="F4" s="52">
+        <v>-3.79048687167223</v>
+      </c>
+      <c r="G4" s="42">
+        <f>E4-F4</f>
+        <v>4.4211214912090462</v>
+      </c>
+      <c r="H4" s="53">
+        <v>145.63988175558799</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.62580094064500502</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.61874185104337798</v>
+      </c>
+      <c r="G5" s="72">
+        <f>E5-F5</f>
+        <v>7.0590896016270444E-3</v>
+      </c>
+      <c r="H5" s="14">
+        <v>144.488499325107</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="12">
+        <v>0.62654307624121597</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.61709434812658703</v>
+      </c>
+      <c r="G6" s="72">
+        <f>E6-F6</f>
+        <v>9.4487281146289348E-3</v>
+      </c>
+      <c r="H6" s="14">
+        <v>144.95188992785299</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="12">
+        <v>0.73789850806966495</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0.60395345579179005</v>
+      </c>
+      <c r="G7" s="73">
+        <f>E7-F7</f>
+        <v>0.1339450522778749</v>
+      </c>
+      <c r="H7" s="14">
+        <v>148.34151714304301</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.70169139480556297</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.62748750595759495</v>
+      </c>
+      <c r="G8" s="73">
+        <f>E8-F8</f>
+        <v>7.4203888847968025E-2</v>
+      </c>
+      <c r="H8" s="14">
+        <v>148.34151714304301</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="11"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.61165944783533199</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.59917817837556797</v>
+      </c>
+      <c r="G10" s="73">
+        <f>E10-F10</f>
+        <v>1.2481269459764022E-2</v>
+      </c>
+      <c r="H10" s="14">
+        <v>142.512269337047</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="78">
+        <v>0.84571599380877405</v>
+      </c>
+      <c r="F11" s="78">
+        <v>0.68204188630691998</v>
+      </c>
+      <c r="G11" s="79">
+        <f>E11-F11</f>
+        <v>0.16367410750185407</v>
+      </c>
+      <c r="H11" s="80">
+        <v>149.18527174040099</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="12">
+        <v>-0.134005472064018</v>
+      </c>
+      <c r="F13" s="12">
+        <v>-0.15225124359130801</v>
+      </c>
+      <c r="G13" s="72"/>
+      <c r="H13" s="14">
+        <v>123.12858452708601</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="11"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6">
+        <v>0.87666517775748498</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.64596845288950999</v>
+      </c>
+      <c r="G15" s="74">
+        <f>E15-F15</f>
+        <v>0.23069672486797499</v>
+      </c>
+      <c r="H15" s="75">
+        <v>157.745568266097</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="83">
+        <v>0.62268016816886795</v>
+      </c>
+      <c r="F16" s="83">
+        <v>0.56385214497636504</v>
+      </c>
+      <c r="G16" s="84">
+        <f>E16-F16</f>
+        <v>5.882802319250291E-2</v>
+      </c>
+      <c r="H16" s="85">
+        <v>126.14951902969599</v>
+      </c>
+      <c r="I16">
+        <f>H16/4437</f>
+        <v>2.8431264149131392E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="44"/>
+    </row>
+    <row r="18" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="99" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="101"/>
+    </row>
+    <row r="20" spans="2:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="67"/>
+    </row>
+    <row r="21" spans="2:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="67"/>
+    </row>
+    <row r="22" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="56"/>
+      <c r="H22" s="57"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="63"/>
+    </row>
+    <row r="24" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="60"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="56"/>
+      <c r="H25" s="57"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="57"/>
+    </row>
+    <row r="27" spans="2:9" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="102" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="104"/>
+      <c r="I27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="68"/>
+      <c r="H28" s="57"/>
+    </row>
+    <row r="29" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B27:H27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CF1FF0-C021-E548-9EDF-A2A2BB3E90F4}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="88" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="88" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="90"/>
+    <col min="5" max="5" width="14.6640625" style="90" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="88" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="91"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="46"/>
+      <c r="G1" s="87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="109" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="114">
+        <v>0.88655691499571498</v>
+      </c>
+      <c r="E2" s="114">
+        <v>0.68178632153767404</v>
+      </c>
+      <c r="F2" s="119">
+        <f>D2-E2</f>
+        <v>0.20477059345804094</v>
+      </c>
+      <c r="G2" s="123">
+        <v>150.46454839861599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="97">
+        <v>0.71982951374230797</v>
+      </c>
+      <c r="E3" s="97">
+        <v>0.66190279482566206</v>
+      </c>
+      <c r="F3" s="98">
+        <f>D3-E3</f>
+        <v>5.7926718916645914E-2</v>
+      </c>
+      <c r="G3" s="96">
+        <v>150.48707449147099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="117">
+        <v>0.92200759168979596</v>
+      </c>
+      <c r="E4" s="117">
+        <v>0.638978679941692</v>
+      </c>
+      <c r="F4" s="89">
+        <f>D4-E4</f>
+        <v>0.28302891174810396</v>
+      </c>
+      <c r="G4" s="93">
+        <v>160.11724323759901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="105" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="92">
+        <v>0.640176619818694</v>
+      </c>
+      <c r="E5" s="92">
+        <v>0.62954473148412005</v>
+      </c>
+      <c r="F5" s="89">
+        <f>D5-E5</f>
+        <v>1.0631888334573958E-2</v>
+      </c>
+      <c r="G5" s="93">
+        <v>144.77481246623401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="106" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="92">
+        <v>0.63612729598238804</v>
+      </c>
+      <c r="E6" s="92">
+        <v>0.62723519988791798</v>
+      </c>
+      <c r="F6" s="89">
+        <f>D6-E6</f>
+        <v>8.8920960944700589E-3</v>
+      </c>
+      <c r="G6" s="93">
+        <v>144.961074874621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="92">
+        <v>0.62311041718920901</v>
+      </c>
+      <c r="E7" s="92">
+        <v>0.602938132943029</v>
+      </c>
+      <c r="F7" s="125">
+        <f>D7-E7</f>
+        <v>2.0172284246180006E-2</v>
+      </c>
+      <c r="G7" s="93">
+        <v>143.09498857083199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="115">
+        <v>0.65263812085930395</v>
+      </c>
+      <c r="E8" s="115">
+        <v>0.579026033938975</v>
+      </c>
+      <c r="F8" s="120">
+        <f>D8-E8</f>
+        <v>7.3612086920328945E-2</v>
+      </c>
+      <c r="G8" s="96">
+        <v>126.14951902969599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="106" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="92">
+        <v>-0.10997129231691299</v>
+      </c>
+      <c r="E9" s="92">
+        <v>-0.12766656279563901</v>
+      </c>
+      <c r="F9" s="89">
+        <f>D9-E9</f>
+        <v>1.7695270478726016E-2</v>
+      </c>
+      <c r="G9" s="96">
+        <v>135.15477955246999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="107" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="94">
+        <v>0.64932985974994695</v>
+      </c>
+      <c r="E10" s="118">
+        <v>-4.4354846159887002E+17</v>
+      </c>
+      <c r="F10" s="122">
+        <f>D10-E10</f>
+        <v>4.4354846159887002E+17</v>
+      </c>
+      <c r="G10" s="95">
+        <v>146.49835442356201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="112"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="124"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H13" xr:uid="{C0CF1FF0-C021-E548-9EDF-A2A2BB3E90F4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H13">
+      <sortCondition descending="1" ref="E1:E13"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAF720E-8DD5-D847-B903-0EA7DA8A5859}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="23.83203125" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="129" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="114">
+        <v>0.88655691499571498</v>
+      </c>
+      <c r="C2" s="114">
+        <v>0.68178632153767404</v>
+      </c>
+      <c r="D2" s="119">
+        <f>B2-C2</f>
+        <v>0.20477059345804094</v>
+      </c>
+      <c r="E2" s="123">
+        <v>150.46454839861599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="115">
+        <v>0.71982951374230797</v>
+      </c>
+      <c r="C3" s="115">
+        <v>0.66190279482566206</v>
+      </c>
+      <c r="D3" s="98">
+        <f>B3-C3</f>
+        <v>5.7926718916645914E-2</v>
+      </c>
+      <c r="E3" s="96">
+        <v>150.48707449147099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="130" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="126">
+        <v>0.65263812085930395</v>
+      </c>
+      <c r="C4" s="126">
+        <v>0.579026033938975</v>
+      </c>
+      <c r="D4" s="127">
+        <f>B4-C4</f>
+        <v>7.3612086920328945E-2</v>
+      </c>
+      <c r="E4" s="128">
+        <v>126.14951902969599</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/docs/Models Benchmark.xlsx
+++ b/docs/Models Benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviaresende/Documents/DSI-822/Projects/week_13/airbnb_data_analysis/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDC6B67F-CB64-4541-8BED-202BC4A900F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFF1D6E-A0E8-1748-A3E3-75904DE38AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16540" activeTab="3" xr2:uid="{0926B4AE-3400-3E49-B27C-8CC349AEC220}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" activeTab="3" xr2:uid="{0926B4AE-3400-3E49-B27C-8CC349AEC220}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1856,7 +1856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0C0AB5-77A9-FB4D-90CA-DD18CB0D637C}">
   <dimension ref="B2:I29"/>
   <sheetViews>
-    <sheetView zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -2264,7 +2264,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/docs/Models Benchmark.xlsx
+++ b/docs/Models Benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviaresende/Documents/DSI-822/Projects/week_13/airbnb_data_analysis/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFF1D6E-A0E8-1748-A3E3-75904DE38AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776315FC-A745-6343-B229-438534E71305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" activeTab="3" xr2:uid="{0926B4AE-3400-3E49-B27C-8CC349AEC220}"/>
+    <workbookView xWindow="18720" yWindow="3540" windowWidth="10080" windowHeight="13460" firstSheet="2" activeTab="5" xr2:uid="{0926B4AE-3400-3E49-B27C-8CC349AEC220}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="v2" sheetId="3" r:id="rId3"/>
     <sheet name="v3" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'v3'!$A$1:$H$13</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="48">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -266,6 +267,9 @@
   </si>
   <si>
     <t>Diff.</t>
+  </si>
+  <si>
+    <t>Index(['host_is_superhost', 'host_has_profile_pic', 'host_identity_verified', 'neighbourhood_cleansed', 'latitude', 'room_type', 'accommodates', 'bedrooms', 'beds', 'price', 'minimum_nights', 'maximum_nights', 'review_scores_rating', 'instant_bookable', 'bathrooms_type', 'bathrooms_nbr', 'neigh_price_sqft', 'amenities_count'], dtype='object')</t>
   </si>
 </sst>
 </file>
@@ -2263,7 +2267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CF1FF0-C021-E548-9EDF-A2A2BB3E90F4}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -2618,4 +2622,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C546EF-2E03-8141-A2BA-EA21752E7FC6}">
+  <dimension ref="B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>